--- a/نتائج_السير_الذاتية.xlsx
+++ b/نتائج_السير_الذاتية.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +537,38 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MashaelAlharbi_-_CV_1.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bachelor</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Business Administration</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Python, SQL, Excel, Power BI, AI, HTML, CSS, R</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
